--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS123-001 - Kepesertaan - Inquiry - Deposito - Inquiry Deposito (Bulk).xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS123-001 - Kepesertaan - Inquiry - Deposito - Inquiry Deposito (Bulk).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4ED3E-FF97-4B78-B93B-F53E2274D540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564428B9-AF75-44C7-8F27-807C886D845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,19 +88,19 @@
     <t>Inquiry Deposit (Bulk)</t>
   </si>
   <si>
-    <t>UP032301000071</t>
-  </si>
-  <si>
     <t>DPLKKPS123-001</t>
   </si>
   <si>
     <t>Data Deposit Bulk berhasil diinquiry</t>
+  </si>
+  <si>
+    <t>UP032303000071</t>
   </si>
   <si>
     <t>Username : 31816;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No Register : UP032301000071</t>
+No Register : UP032303000071</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -573,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>25</v>
@@ -600,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
